--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0694673901208549</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N2">
-        <v>0.0694673901208549</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O2">
-        <v>0.02497769656176403</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P2">
-        <v>0.02497769656176403</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q2">
-        <v>9.578939527178282</v>
+        <v>28.12672628878056</v>
       </c>
       <c r="R2">
-        <v>9.578939527178282</v>
+        <v>253.140536599025</v>
       </c>
       <c r="S2">
-        <v>0.006533965796104065</v>
+        <v>0.01390891687569756</v>
       </c>
       <c r="T2">
-        <v>0.006533965796104065</v>
+        <v>0.01718703969619264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.1495698006026</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N3">
-        <v>1.1495698006026</v>
+        <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.4133393467937292</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P3">
-        <v>0.4133393467937292</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q3">
-        <v>158.5155219317341</v>
+        <v>183.6191448077861</v>
       </c>
       <c r="R3">
-        <v>158.5155219317341</v>
+        <v>1652.572303270075</v>
       </c>
       <c r="S3">
-        <v>0.1081262696684584</v>
+        <v>0.09080130391630081</v>
       </c>
       <c r="T3">
-        <v>0.1081262696684584</v>
+        <v>0.1122018075758503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.226787560066387</v>
+        <v>0.167083</v>
       </c>
       <c r="N4">
-        <v>0.226787560066387</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O4">
-        <v>0.08154374087562649</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P4">
-        <v>0.08154374087562649</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q4">
-        <v>31.27200143279975</v>
+        <v>25.35084723228167</v>
       </c>
       <c r="R4">
-        <v>31.27200143279975</v>
+        <v>228.157625090535</v>
       </c>
       <c r="S4">
-        <v>0.02133119090666412</v>
+        <v>0.01253621993765278</v>
       </c>
       <c r="T4">
-        <v>0.02133119090666412</v>
+        <v>0.01549081870530872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.33535204624099</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N5">
-        <v>1.33535204624099</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O5">
-        <v>0.4801392157688803</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P5">
-        <v>0.4801392157688803</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q5">
-        <v>184.1332526842136</v>
+        <v>37.11214655430945</v>
       </c>
       <c r="R5">
-        <v>184.1332526842136</v>
+        <v>334.0093189887851</v>
       </c>
       <c r="S5">
-        <v>0.1256005815205776</v>
+        <v>0.01835228729439794</v>
       </c>
       <c r="T5">
-        <v>0.1256005815205776</v>
+        <v>0.02267764579108754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0694673901208549</v>
+        <v>1.7922885</v>
       </c>
       <c r="N6">
-        <v>0.0694673901208549</v>
+        <v>3.584577</v>
       </c>
       <c r="O6">
-        <v>0.02497769656176403</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P6">
-        <v>0.02497769656176403</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q6">
-        <v>5.252100347886053</v>
+        <v>271.9368933983425</v>
       </c>
       <c r="R6">
-        <v>5.252100347886053</v>
+        <v>1631.621360390055</v>
       </c>
       <c r="S6">
-        <v>0.00358255148531068</v>
+        <v>0.1344752178721102</v>
       </c>
       <c r="T6">
-        <v>0.00358255148531068</v>
+        <v>0.1107793380978704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1495698006026</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N7">
-        <v>1.1495698006026</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O7">
-        <v>0.4133393467937292</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P7">
-        <v>0.4133393467937292</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q7">
-        <v>86.91352790367236</v>
+        <v>15.24715862452833</v>
       </c>
       <c r="R7">
-        <v>86.91352790367236</v>
+        <v>137.224427620755</v>
       </c>
       <c r="S7">
-        <v>0.05928527024625844</v>
+        <v>0.007539855855309146</v>
       </c>
       <c r="T7">
-        <v>0.05928527024625844</v>
+        <v>0.009316886645227701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226787560066387</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N8">
-        <v>0.226787560066387</v>
+        <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.08154374087562649</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P8">
-        <v>0.08154374087562649</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q8">
-        <v>17.14633328024389</v>
+        <v>99.53772076565166</v>
       </c>
       <c r="R8">
-        <v>17.14633328024389</v>
+        <v>895.839486890865</v>
       </c>
       <c r="S8">
-        <v>0.01169582027987985</v>
+        <v>0.04922229021292431</v>
       </c>
       <c r="T8">
-        <v>0.01169582027987985</v>
+        <v>0.06082324478516354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.33535204624099</v>
+        <v>0.167083</v>
       </c>
       <c r="N9">
-        <v>1.33535204624099</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O9">
-        <v>0.4801392157688803</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P9">
-        <v>0.4801392157688803</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q9">
-        <v>100.95964357393</v>
+        <v>13.742388113293</v>
       </c>
       <c r="R9">
-        <v>100.95964357393</v>
+        <v>123.681493019637</v>
       </c>
       <c r="S9">
-        <v>0.06886637670352197</v>
+        <v>0.006795733423751164</v>
       </c>
       <c r="T9">
-        <v>0.06886637670352197</v>
+        <v>0.008397385731942316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0694673901208549</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N10">
-        <v>0.0694673901208549</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O10">
-        <v>0.02497769656176403</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P10">
-        <v>0.02497769656176403</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q10">
-        <v>7.913497305458552</v>
+        <v>20.11804643030967</v>
       </c>
       <c r="R10">
-        <v>7.913497305458552</v>
+        <v>181.062417872787</v>
       </c>
       <c r="S10">
-        <v>0.005397937900612191</v>
+        <v>0.009948553295099206</v>
       </c>
       <c r="T10">
-        <v>0.005397937900612191</v>
+        <v>0.01229327789723978</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J11">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.1495698006026</v>
+        <v>1.7922885</v>
       </c>
       <c r="N11">
-        <v>1.1495698006026</v>
+        <v>3.584577</v>
       </c>
       <c r="O11">
-        <v>0.4133393467937292</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P11">
-        <v>0.4133393467937292</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q11">
-        <v>130.9552223522234</v>
+        <v>147.4137056312835</v>
       </c>
       <c r="R11">
-        <v>130.9552223522234</v>
+        <v>884.4822337877009</v>
       </c>
       <c r="S11">
-        <v>0.08932689691200979</v>
+        <v>0.07289739150275516</v>
       </c>
       <c r="T11">
-        <v>0.08932689691200979</v>
+        <v>0.06005214126082764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226787560066387</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N12">
-        <v>0.226787560066387</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O12">
-        <v>0.08154374087562649</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P12">
-        <v>0.08154374087562649</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q12">
-        <v>25.83489522745276</v>
+        <v>22.883902486445</v>
       </c>
       <c r="R12">
-        <v>25.83489522745276</v>
+        <v>205.955122378005</v>
       </c>
       <c r="S12">
-        <v>0.01762244362052404</v>
+        <v>0.01131629377011767</v>
       </c>
       <c r="T12">
-        <v>0.01762244362052404</v>
+        <v>0.0139833742611993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.33535204624099</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N13">
-        <v>1.33535204624099</v>
+        <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.4801392157688803</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P13">
-        <v>0.4801392157688803</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q13">
-        <v>152.1189266126498</v>
+        <v>149.392523014735</v>
       </c>
       <c r="R13">
-        <v>152.1189266126498</v>
+        <v>1344.532707132615</v>
       </c>
       <c r="S13">
-        <v>0.1037630377148762</v>
+        <v>0.07387593433834962</v>
       </c>
       <c r="T13">
-        <v>0.1037630377148762</v>
+        <v>0.09128738257721863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H14">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I14">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J14">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.0694673901208549</v>
+        <v>0.167083</v>
       </c>
       <c r="N14">
-        <v>0.0694673901208549</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O14">
-        <v>0.02497769656176403</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P14">
-        <v>0.02497769656176403</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q14">
-        <v>10.48276976588222</v>
+        <v>20.625447485643</v>
       </c>
       <c r="R14">
-        <v>10.48276976588222</v>
+        <v>185.629027370787</v>
       </c>
       <c r="S14">
-        <v>0.007150484550442179</v>
+        <v>0.01019946764001135</v>
       </c>
       <c r="T14">
-        <v>0.007150484550442179</v>
+        <v>0.01260332898496208</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H15">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I15">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J15">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1495698006026</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N15">
-        <v>1.1495698006026</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O15">
-        <v>0.4133393467937292</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P15">
-        <v>0.4133393467937292</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q15">
-        <v>173.4724095516356</v>
+        <v>30.194439768493</v>
       </c>
       <c r="R15">
-        <v>173.4724095516356</v>
+        <v>271.749957916437</v>
       </c>
       <c r="S15">
-        <v>0.118328629945118</v>
+        <v>0.01493141962332631</v>
       </c>
       <c r="T15">
-        <v>0.118328629945118</v>
+        <v>0.01845053098527118</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H16">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I16">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J16">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226787560066387</v>
+        <v>1.7922885</v>
       </c>
       <c r="N16">
-        <v>0.226787560066387</v>
+        <v>3.584577</v>
       </c>
       <c r="O16">
-        <v>0.08154374087562649</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P16">
-        <v>0.08154374087562649</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q16">
-        <v>34.22270181456562</v>
+        <v>221.2478369186085</v>
       </c>
       <c r="R16">
-        <v>34.22270181456562</v>
+        <v>1327.487021511651</v>
       </c>
       <c r="S16">
-        <v>0.02334391635652284</v>
+        <v>0.1094090275929597</v>
       </c>
       <c r="T16">
-        <v>0.02334391635652284</v>
+        <v>0.09013006151219938</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H17">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I17">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J17">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33535204624099</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N17">
-        <v>1.33535204624099</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O17">
-        <v>0.4801392157688803</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P17">
-        <v>0.4801392157688803</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q17">
-        <v>201.5073264274195</v>
+        <v>28.61184377617222</v>
       </c>
       <c r="R17">
-        <v>201.5073264274195</v>
+        <v>257.50659398555</v>
       </c>
       <c r="S17">
-        <v>0.137451747639228</v>
+        <v>0.01414881179762345</v>
       </c>
       <c r="T17">
-        <v>0.137451747639228</v>
+        <v>0.0174834742484229</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H18">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I18">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J18">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0694673901208549</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N18">
-        <v>0.0694673901208549</v>
+        <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.02497769656176403</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P18">
-        <v>0.02497769656176403</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q18">
-        <v>3.390553073004136</v>
+        <v>186.7861276002944</v>
       </c>
       <c r="R18">
-        <v>3.390553073004136</v>
+        <v>1681.07514840265</v>
       </c>
       <c r="S18">
-        <v>0.002312756829294913</v>
+        <v>0.09236740513816016</v>
       </c>
       <c r="T18">
-        <v>0.002312756829294913</v>
+        <v>0.1141370153356567</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H19">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I19">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J19">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.1495698006026</v>
+        <v>0.167083</v>
       </c>
       <c r="N19">
-        <v>1.1495698006026</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O19">
-        <v>0.4133393467937292</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P19">
-        <v>0.4133393467937292</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q19">
-        <v>56.10801576516649</v>
+        <v>25.78808757039666</v>
       </c>
       <c r="R19">
-        <v>56.10801576516649</v>
+        <v>232.09278813357</v>
       </c>
       <c r="S19">
-        <v>0.03827228002188454</v>
+        <v>0.0127524391824772</v>
       </c>
       <c r="T19">
-        <v>0.03827228002188454</v>
+        <v>0.01575799757891111</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H20">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I20">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J20">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.226787560066387</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N20">
-        <v>0.226787560066387</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O20">
-        <v>0.08154374087562649</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P20">
-        <v>0.08154374087562649</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q20">
-        <v>11.06901032793163</v>
+        <v>37.75224064500778</v>
       </c>
       <c r="R20">
-        <v>11.06901032793163</v>
+        <v>339.7701658050701</v>
       </c>
       <c r="S20">
-        <v>0.007550369712035642</v>
+        <v>0.01866881952814388</v>
       </c>
       <c r="T20">
-        <v>0.007550369712035642</v>
+        <v>0.02306877991857819</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H21">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I21">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J21">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.33535204624099</v>
+        <v>1.7922885</v>
       </c>
       <c r="N21">
-        <v>1.33535204624099</v>
+        <v>3.584577</v>
       </c>
       <c r="O21">
-        <v>0.4801392157688803</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P21">
-        <v>0.4801392157688803</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q21">
-        <v>65.17564537904698</v>
+        <v>276.627142135435</v>
       </c>
       <c r="R21">
-        <v>65.17564537904698</v>
+        <v>1659.76285281261</v>
       </c>
       <c r="S21">
-        <v>0.04445747219067656</v>
+        <v>0.1367945876821896</v>
       </c>
       <c r="T21">
-        <v>0.04445747219067656</v>
+        <v>0.1126900117255505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.0323125</v>
+      </c>
+      <c r="H22">
+        <v>100.064625</v>
+      </c>
+      <c r="I22">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J22">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1853783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.5561349999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.05150040234182901</v>
+      </c>
+      <c r="P22">
+        <v>0.06174910743679608</v>
+      </c>
+      <c r="Q22">
+        <v>9.2749067040625</v>
+      </c>
+      <c r="R22">
+        <v>55.649440224375</v>
+      </c>
+      <c r="S22">
+        <v>0.004586524043081176</v>
+      </c>
+      <c r="T22">
+        <v>0.00377833258575354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.0323125</v>
+      </c>
+      <c r="H23">
+        <v>100.064625</v>
+      </c>
+      <c r="I23">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J23">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.210201666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.630605</v>
+      </c>
+      <c r="O23">
+        <v>0.3362090468038446</v>
+      </c>
+      <c r="P23">
+        <v>0.4031154633417589</v>
+      </c>
+      <c r="Q23">
+        <v>60.5491879746875</v>
+      </c>
+      <c r="R23">
+        <v>363.295127848125</v>
+      </c>
+      <c r="S23">
+        <v>0.02994211319810969</v>
+      </c>
+      <c r="T23">
+        <v>0.02466601306786973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.0323125</v>
+      </c>
+      <c r="H24">
+        <v>100.064625</v>
+      </c>
+      <c r="I24">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J24">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.167083</v>
+      </c>
+      <c r="N24">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P24">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q24">
+        <v>8.3595488694375</v>
+      </c>
+      <c r="R24">
+        <v>50.157293216625</v>
+      </c>
+      <c r="S24">
+        <v>0.00413387143422082</v>
+      </c>
+      <c r="T24">
+        <v>0.00340544189859724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.0323125</v>
+      </c>
+      <c r="H25">
+        <v>100.064625</v>
+      </c>
+      <c r="I25">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J25">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P25">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q25">
+        <v>12.2378869600625</v>
+      </c>
+      <c r="R25">
+        <v>73.42732176037501</v>
+      </c>
+      <c r="S25">
+        <v>0.006051744192127674</v>
+      </c>
+      <c r="T25">
+        <v>0.004985366274543703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.0323125</v>
+      </c>
+      <c r="H26">
+        <v>100.064625</v>
+      </c>
+      <c r="I26">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J26">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.7922885</v>
+      </c>
+      <c r="N26">
+        <v>3.584577</v>
+      </c>
+      <c r="O26">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P26">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q26">
+        <v>89.67233832215625</v>
+      </c>
+      <c r="R26">
+        <v>358.689353288625</v>
+      </c>
+      <c r="S26">
+        <v>0.04434377065310344</v>
+      </c>
+      <c r="T26">
+        <v>0.02435330285855533</v>
       </c>
     </row>
   </sheetData>
